--- a/Original Excel Files/DK.xlsx
+++ b/Original Excel Files/DK.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43A2F072-FEED-43BA-829B-D09DA6408142}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -513,7 +514,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -572,9 +573,6 @@
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -589,6 +587,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -598,6 +597,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -646,7 +648,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -679,9 +681,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -714,6 +733,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -889,790 +925,864 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:G89"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A4:E86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:H9"/>
+      <selection activeCell="D48" sqref="D48:E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="3" t="s">
+      <c r="B4" s="6"/>
+      <c r="C4" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D4" s="7">
         <v>1991</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E4" s="5" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D6" s="7">
+        <v>1980</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D7" s="7">
+        <v>1990</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>0</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B8" t="s">
         <v>1</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C8" t="s">
         <v>2</v>
       </c>
-      <c r="F9" t="s">
+      <c r="D8" t="s">
         <v>3</v>
       </c>
-      <c r="G9" t="s">
+      <c r="E8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D10" s="7">
+        <v>1998</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D11" s="7">
+        <v>1983</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D12" s="7">
+        <v>1983</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D13" s="4">
+        <v>1978</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D16" s="4">
+        <v>1975</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D18" s="4">
+        <v>1986</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B19" s="6"/>
+      <c r="C19" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D19" s="7">
+        <v>1989</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20" t="s">
+        <v>66</v>
+      </c>
+      <c r="E20" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" t="s">
+        <v>70</v>
+      </c>
+      <c r="D21" t="s">
+        <v>71</v>
+      </c>
+      <c r="E21" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D22" s="4">
+        <v>1998</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B23" s="6"/>
+      <c r="C23" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D23" s="7">
+        <v>1994</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>73</v>
+      </c>
+      <c r="B24" t="s">
+        <v>74</v>
+      </c>
+      <c r="C24" t="s">
+        <v>75</v>
+      </c>
+      <c r="D24" t="s">
+        <v>76</v>
+      </c>
+      <c r="E24" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B25" s="6"/>
+      <c r="C25" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D25" s="7">
+        <v>2004</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>78</v>
+      </c>
+      <c r="B26" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26" t="s">
+        <v>79</v>
+      </c>
+      <c r="E26" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B27" s="6"/>
+      <c r="C27" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="D27" s="7">
+        <v>1991</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D28" t="s">
+        <v>84</v>
+      </c>
+      <c r="E28" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>86</v>
+      </c>
+      <c r="B29" t="s">
+        <v>87</v>
+      </c>
+      <c r="C29" t="s">
+        <v>88</v>
+      </c>
+      <c r="D29" t="s">
+        <v>89</v>
+      </c>
+      <c r="E29" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B30" s="6"/>
+      <c r="C30" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="D30" s="7">
+        <v>1976</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B31" s="6"/>
+      <c r="C31" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D31" s="7">
+        <v>1994</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>91</v>
+      </c>
+      <c r="B32" t="s">
+        <v>92</v>
+      </c>
+      <c r="C32" t="s">
+        <v>93</v>
+      </c>
+      <c r="D32" t="s">
+        <v>48</v>
+      </c>
+      <c r="E32" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>95</v>
+      </c>
+      <c r="B33" t="s">
+        <v>96</v>
+      </c>
+      <c r="C33" t="s">
+        <v>97</v>
+      </c>
+      <c r="D33" t="s">
+        <v>98</v>
+      </c>
+      <c r="E33" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B34" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C34" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F12" t="s">
+      <c r="D34" t="s">
         <v>8</v>
       </c>
-      <c r="G12" t="s">
+      <c r="E34" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="3" t="s">
+      <c r="B35" s="6"/>
+      <c r="C35" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D35" s="7">
         <v>2002</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E35" s="5" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="3" t="s">
+      <c r="B36" s="6"/>
+      <c r="C36" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D36" s="7">
         <v>1998</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E36" s="5" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B37" s="6"/>
+      <c r="C37" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="D37" s="7">
+        <v>1966</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>10</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B38" t="s">
         <v>11</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C38" t="s">
         <v>12</v>
       </c>
-      <c r="F15" t="s">
+      <c r="D38" t="s">
         <v>13</v>
       </c>
-      <c r="G15" t="s">
+      <c r="E38" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="D16" s="5">
-        <v>1966</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="3" t="s">
+      <c r="B39" s="6"/>
+      <c r="C39" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D39" s="7">
         <v>1983</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E39" s="5" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="3" t="s">
+      <c r="B40" s="6"/>
+      <c r="C40" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D40" s="7">
         <v>1997</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E40" s="5" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="41" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
         <v>15</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B41" t="s">
         <v>16</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C41" t="s">
         <v>17</v>
       </c>
-      <c r="F25" t="s">
+      <c r="D41" t="s">
         <v>18</v>
       </c>
-      <c r="G25" t="s">
+      <c r="E41" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="42" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B42" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C42" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F26" t="s">
+      <c r="D42" t="s">
         <v>23</v>
       </c>
-      <c r="G26" t="s">
+      <c r="E42" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>25</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B43" t="s">
         <v>26</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C43" t="s">
         <v>27</v>
       </c>
-      <c r="F27" t="s">
+      <c r="D43" t="s">
         <v>28</v>
       </c>
-      <c r="G27" t="s">
+      <c r="E43" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
+    <row r="44" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="3" t="s">
+      <c r="B44" s="6"/>
+      <c r="C44" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="D28" s="5">
+      <c r="D44" s="7">
         <v>1995</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="E44" s="5" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    <row r="45" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B45" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C45" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="F31" t="s">
+      <c r="D45" t="s">
         <v>33</v>
       </c>
-      <c r="G31" t="s">
+      <c r="E45" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+    <row r="46" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B46" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C46" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="F32" t="s">
+      <c r="D46" t="s">
         <v>38</v>
       </c>
-      <c r="G32" t="s">
+      <c r="E46" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="34" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="3" t="s">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B34" s="4"/>
-      <c r="C34" s="3" t="s">
+      <c r="B47" s="6"/>
+      <c r="C47" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="D34" s="5">
+      <c r="D47" s="7">
         <v>1961</v>
       </c>
-      <c r="E34" s="3" t="s">
+      <c r="E47" s="5" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>40</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B48" t="s">
         <v>41</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C48" t="s">
         <v>42</v>
       </c>
-      <c r="F35" t="s">
+      <c r="D48" t="s">
         <v>43</v>
       </c>
-      <c r="G35" t="s">
+      <c r="E48" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>45</v>
-      </c>
-      <c r="B37" t="s">
-        <v>46</v>
-      </c>
-      <c r="C37" t="s">
-        <v>47</v>
-      </c>
-      <c r="F37" t="s">
-        <v>48</v>
-      </c>
-      <c r="G37" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="42" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="B42" s="4"/>
-      <c r="C42" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D42" s="5">
-        <v>1980</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="45" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="B45" s="4"/>
-      <c r="C45" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="D45" s="5">
-        <v>1990</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="B46" s="4"/>
-      <c r="C46" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="D46" s="5">
-        <v>1998</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="6"/>
-      <c r="B47" s="7"/>
-      <c r="C47" s="6"/>
-      <c r="D47" s="8"/>
-      <c r="E47" s="6"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="6"/>
-      <c r="B48" s="7"/>
-      <c r="C48" s="6"/>
-      <c r="D48" s="8"/>
-      <c r="E48" s="6"/>
-    </row>
-    <row r="49" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="6"/>
-      <c r="B49" s="7"/>
-      <c r="C49" s="6"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="6"/>
-    </row>
-    <row r="50" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B50" s="4"/>
-      <c r="C50" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D50" s="5">
-        <v>1983</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B51" s="4"/>
-      <c r="C51" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D51" s="5">
-        <v>1983</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="B52" s="4"/>
-      <c r="C52" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="D52" s="5">
-        <v>1978</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="6"/>
-      <c r="B53" s="7"/>
-      <c r="C53" s="6"/>
-      <c r="D53" s="8"/>
-      <c r="E53" s="6"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="6"/>
-      <c r="B54" s="7"/>
-      <c r="C54" s="6"/>
-      <c r="D54" s="8"/>
-      <c r="E54" s="6"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>50</v>
-      </c>
-      <c r="B55" t="s">
-        <v>51</v>
-      </c>
-      <c r="C55" t="s">
-        <v>52</v>
-      </c>
-      <c r="F55" t="s">
-        <v>48</v>
-      </c>
-      <c r="G55" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>54</v>
-      </c>
-      <c r="B56" t="s">
-        <v>55</v>
-      </c>
-      <c r="C56" t="s">
-        <v>56</v>
-      </c>
-      <c r="F56" t="s">
-        <v>57</v>
-      </c>
-      <c r="G56" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="B57" s="4"/>
-      <c r="C57" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D57" s="5">
-        <v>1975</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>59</v>
-      </c>
-      <c r="B59" t="s">
-        <v>60</v>
-      </c>
-      <c r="C59" t="s">
-        <v>61</v>
-      </c>
-      <c r="F59" t="s">
-        <v>28</v>
-      </c>
-      <c r="G59" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="61" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="B61" s="4"/>
-      <c r="C61" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D61" s="5">
-        <v>1986</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="63" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="B63" s="4"/>
-      <c r="C63" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D63" s="5">
-        <v>1989</v>
-      </c>
-      <c r="E63" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>63</v>
-      </c>
-      <c r="B65" t="s">
-        <v>64</v>
-      </c>
-      <c r="C65" t="s">
-        <v>65</v>
-      </c>
-      <c r="F65" t="s">
-        <v>66</v>
-      </c>
-      <c r="G65" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>68</v>
-      </c>
-      <c r="B66" t="s">
-        <v>69</v>
-      </c>
-      <c r="C66" t="s">
-        <v>70</v>
-      </c>
-      <c r="F66" t="s">
-        <v>71</v>
-      </c>
-      <c r="G66" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="68" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B68" s="4"/>
-      <c r="C68" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="D68" s="5">
-        <v>1998</v>
-      </c>
-      <c r="E68" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="B69" s="4"/>
-      <c r="C69" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="D69" s="5">
-        <v>1994</v>
-      </c>
-      <c r="E69" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
-        <v>73</v>
-      </c>
-      <c r="B71" t="s">
-        <v>74</v>
-      </c>
-      <c r="C71" t="s">
-        <v>75</v>
-      </c>
-      <c r="F71" t="s">
-        <v>76</v>
-      </c>
-      <c r="G71" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="B72" s="4"/>
-      <c r="C72" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="D72" s="5">
-        <v>2004</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>78</v>
-      </c>
-      <c r="B75" t="s">
-        <v>60</v>
-      </c>
-      <c r="C75" t="s">
-        <v>61</v>
-      </c>
-      <c r="F75" t="s">
-        <v>79</v>
-      </c>
-      <c r="G75" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="77" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="B77" s="4"/>
-      <c r="C77" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="D77" s="5">
-        <v>1991</v>
-      </c>
-      <c r="E77" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>81</v>
-      </c>
-      <c r="B80" t="s">
-        <v>82</v>
-      </c>
-      <c r="C80" t="s">
-        <v>83</v>
-      </c>
-      <c r="F80" t="s">
-        <v>84</v>
-      </c>
-      <c r="G80" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>86</v>
-      </c>
-      <c r="B81" t="s">
-        <v>87</v>
-      </c>
-      <c r="C81" t="s">
-        <v>88</v>
-      </c>
-      <c r="F81" t="s">
-        <v>89</v>
-      </c>
-      <c r="G81" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="83" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="B83" s="4"/>
-      <c r="C83" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="D83" s="5">
-        <v>1976</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="86" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="B86" s="4"/>
-      <c r="C86" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="D86" s="5">
-        <v>1994</v>
-      </c>
-      <c r="E86" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>91</v>
-      </c>
-      <c r="B88" t="s">
-        <v>92</v>
-      </c>
-      <c r="C88" t="s">
-        <v>93</v>
-      </c>
-      <c r="F88" t="s">
-        <v>48</v>
-      </c>
-      <c r="G88" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>95</v>
-      </c>
-      <c r="B89" t="s">
-        <v>96</v>
-      </c>
-      <c r="C89" t="s">
-        <v>97</v>
-      </c>
-      <c r="F89" t="s">
-        <v>98</v>
-      </c>
-      <c r="G89" t="s">
-        <v>99</v>
-      </c>
+    <row r="49" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="50" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="8"/>
+      <c r="B50" s="8"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+    </row>
+    <row r="51" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="8"/>
+      <c r="B51" s="8"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+    </row>
+    <row r="52" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="8"/>
+      <c r="B52" s="8"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+    </row>
+    <row r="56" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="57" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="8"/>
+      <c r="B57" s="8"/>
+      <c r="C57" s="8"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+    </row>
+    <row r="60" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="61" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="8"/>
+      <c r="B61" s="8"/>
+      <c r="C61" s="8"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+    </row>
+    <row r="62" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="63" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="8"/>
+      <c r="B63" s="8"/>
+      <c r="C63" s="8"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+    </row>
+    <row r="67" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="68" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="8"/>
+      <c r="B68" s="8"/>
+      <c r="C68" s="8"/>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+    </row>
+    <row r="69" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="8"/>
+      <c r="B69" s="8"/>
+      <c r="C69" s="8"/>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="5"/>
+      <c r="B70" s="6"/>
+      <c r="C70" s="5"/>
+      <c r="D70" s="7"/>
+      <c r="E70" s="5"/>
+    </row>
+    <row r="71" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="5"/>
+      <c r="B71" s="6"/>
+      <c r="C71" s="5"/>
+      <c r="D71" s="7"/>
+      <c r="E71" s="5"/>
+    </row>
+    <row r="72" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="2"/>
+      <c r="B72" s="3"/>
+      <c r="C72" s="2"/>
+      <c r="D72" s="4"/>
+      <c r="E72" s="2"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="5"/>
+      <c r="B73" s="6"/>
+      <c r="C73" s="5"/>
+      <c r="D73" s="7"/>
+      <c r="E73" s="5"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="5"/>
+      <c r="B74" s="6"/>
+      <c r="C74" s="5"/>
+      <c r="D74" s="7"/>
+      <c r="E74" s="5"/>
+    </row>
+    <row r="76" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="77" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="8"/>
+      <c r="B77" s="8"/>
+      <c r="C77" s="8"/>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+    </row>
+    <row r="82" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="83" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="8"/>
+      <c r="B83" s="8"/>
+      <c r="C83" s="8"/>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+    </row>
+    <row r="85" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="86" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="8"/>
+      <c r="B86" s="8"/>
+      <c r="C86" s="8"/>
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:G89">
+    <sortCondition ref="A1:A89"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1684,7 +1794,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
